--- a/docs/dataModel.xlsx
+++ b/docs/dataModel.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cambo\Docs\Projects\nodes\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9AA4663F-215E-43A8-BAB7-D8B1862AD32E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC4292C3-AF8D-45F7-BC0C-5E88E3B94D55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21585" yWindow="3795" windowWidth="17265" windowHeight="15345" xr2:uid="{DC9B6881-A9E2-4365-A497-0DA9F141341F}"/>
+    <workbookView xWindow="41820" yWindow="1500" windowWidth="23145" windowHeight="16620" xr2:uid="{DC9B6881-A9E2-4365-A497-0DA9F141341F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Table" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -189,36 +189,36 @@
   </cellStyleXfs>
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -558,7 +558,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -568,64 +568,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="11" t="s">
+      <c r="A4" s="11"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="7" t="s">
+      <c r="A5" s="11"/>
+      <c r="B5" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E5" t="s">
@@ -633,40 +633,40 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="11">
+      <c r="A6" s="11"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="4">
         <v>123</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="7" t="s">
+      <c r="A7" s="11"/>
+      <c r="B7" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="11">
+      <c r="A8" s="12"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="4">
         <v>541</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/docs/dataModel.xlsx
+++ b/docs/dataModel.xlsx
@@ -1,19 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cambo\Docs\Projects\nodes\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC4292C3-AF8D-45F7-BC0C-5E88E3B94D55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D300A45-C7D1-43BC-AFF5-594907A1FFA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41820" yWindow="1500" windowWidth="23145" windowHeight="16620" xr2:uid="{DC9B6881-A9E2-4365-A497-0DA9F141341F}"/>
+    <workbookView xWindow="44235" yWindow="0" windowWidth="32670" windowHeight="20985" xr2:uid="{CBCEB78D-0F81-4338-9068-18F757A6824D}"/>
   </bookViews>
   <sheets>
-    <sheet name="Table" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="workflows" sheetId="3" r:id="rId2"/>
+    <sheet name="nodes" sheetId="4" r:id="rId3"/>
+    <sheet name="node_data" sheetId="2" r:id="rId4"/>
+    <sheet name="edges" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,95 +40,183 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
-  <si>
-    <t>Primary Key</t>
-  </si>
-  <si>
-    <t>Attributes</t>
-  </si>
-  <si>
-    <t>Workflow-102</t>
-  </si>
-  <si>
-    <t>Node-1</t>
-  </si>
-  <si>
-    <t>Node-2</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="51">
+  <si>
+    <t>Workflow-103497d4-c2fa-4759-a595-ced445cb98c9</t>
+  </si>
+  <si>
+    <t>Workflow 1</t>
+  </si>
+  <si>
+    <t>103497d4-c2fa-4759-a595-ced445cb98c9</t>
+  </si>
+  <si>
+    <t>Mabel Williamson</t>
+  </si>
+  <si>
+    <t>Workflow-e5afbe33-485a-4d35-ab33-9d36d2f5d7ba</t>
+  </si>
+  <si>
+    <t>Workflow 2</t>
+  </si>
+  <si>
+    <t>e5afbe33-485a-4d35-ab33-9d36d2f5d7ba</t>
+  </si>
+  <si>
+    <t>Beth Gerhold</t>
+  </si>
+  <si>
+    <t>Workflow-ID</t>
+  </si>
+  <si>
+    <t>Node-013e55a5-fb9c-46a9-82ce-c7f429428ff8</t>
+  </si>
+  <si>
+    <t>013e55a5-fb9c-46a9-82ce-c7f429428ff8</t>
+  </si>
+  <si>
+    <t>{"Name":{"S":"Joe"},"Age":{"N":"35"}}</t>
+  </si>
+  <si>
+    <t>Node 1</t>
+  </si>
+  <si>
+    <t>Node-c552e884-d2d4-47b7-92ca-0b8a7fef813c</t>
+  </si>
+  <si>
+    <t>c552e884-d2d4-47b7-92ca-0b8a7fef813c</t>
+  </si>
+  <si>
+    <t>Node 2</t>
+  </si>
+  <si>
+    <t>Node-e3a1049b-74af-428e-9a9a-84d0a2ddff71</t>
+  </si>
+  <si>
+    <t>e3a1049b-74af-428e-9a9a-84d0a2ddff71</t>
+  </si>
+  <si>
+    <t>Node 3</t>
+  </si>
+  <si>
+    <t>Edge-1</t>
+  </si>
+  <si>
+    <t>Edge-2</t>
+  </si>
+  <si>
+    <t>NodeID</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>EdgeID</t>
+  </si>
+  <si>
+    <t>WorkflowID</t>
+  </si>
+  <si>
+    <t>NodeDataID</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>From</t>
+  </si>
+  <si>
+    <t>To</t>
+  </si>
+  <si>
+    <t>Node-013e55a5-fb9c-46a9-82ce-c7f429428ff8#Data-4855760e-a49e-4f3a-bb7c-10772b299d68</t>
+  </si>
+  <si>
+    <t>4855760e-a49e-4f3a-bb7c-10772b299d68</t>
+  </si>
+  <si>
+    <t>dd3d72ab-a495-4341-a444-4df443dbedae</t>
+  </si>
+  <si>
+    <t>3b55fb38-58b3-4895-b6ce-64b2efb549b2</t>
+  </si>
+  <si>
+    <t>32b5093e-0c39-46bf-9fe0-100ba02cbac8</t>
+  </si>
+  <si>
+    <t>Node-c552e884-d2d4-47b7-92ca-0b8a7fef813c#Data-dd3d72ab-a495-4341-a444-4df443dbedae</t>
+  </si>
+  <si>
+    <t>Node-c552e884-d2d4-47b7-92ca-0b8a7fef813c#Data-3b55fb38-58b3-4895-b6ce-64b2efb549b2</t>
+  </si>
+  <si>
+    <t>Node-e3a1049b-74af-428e-9a9a-84d0a2ddff71#Data-32b5093e-0c39-46bf-9fe0-100ba02cbac8</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>options</t>
+  </si>
+  <si>
+    <t>f1bd9eea-f9b5-469d-95fe-fc3b8dcbdf1a</t>
+  </si>
+  <si>
+    <t>Node-013e55a5-fb9c-46a9-82ce-c7f429428ff8#Data-f1bd9eea-f9b5-469d-95fe-fc3b8dcbdf1a</t>
+  </si>
+  <si>
+    <t>output</t>
+  </si>
+  <si>
+    <t>input</t>
   </si>
   <si>
     <t>Name</t>
   </si>
   <si>
-    <t>My Workflow</t>
-  </si>
-  <si>
-    <t>SoureId</t>
-  </si>
-  <si>
     <t>Owner</t>
   </si>
   <si>
-    <t>Joe</t>
+    <t>PartitionKey</t>
+  </si>
+  <si>
+    <t>SortKey</t>
+  </si>
+  <si>
+    <t>Version</t>
   </si>
   <si>
     <t>Manifest</t>
   </si>
   <si>
-    <t>{}</t>
-  </si>
-  <si>
-    <t>PK_Entity_ID</t>
-  </si>
-  <si>
-    <t>SK_Entity_ID</t>
-  </si>
-  <si>
-    <t>Children</t>
+    <t>Node</t>
+  </si>
+  <si>
+    <t>Cameron Hill</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="6">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -132,95 +224,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -249,39 +258,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="0E2841"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E8E8E8"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="156082"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="E97132"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="196B24"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="0F9ED5"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="A02B93"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="4EA72E"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="467886"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="96607D"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -333,7 +342,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -444,6 +453,13 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -452,13 +468,6 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -523,160 +532,695 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CB5B953-39CE-4588-B87D-B4022434501D}">
-  <dimension ref="A1:F8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF3A7BDE-80A8-484B-B2FE-18A19BB629B5}">
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="1" max="1" width="52" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="91.5703125" customWidth="1"/>
+    <col min="3" max="3" width="43.5703125" customWidth="1"/>
+    <col min="4" max="4" width="42.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="8" t="s">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7">
+        <v>6835976676573180</v>
+      </c>
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8">
+        <v>7103158471884800</v>
+      </c>
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9">
+        <v>1893143070900220</v>
+      </c>
+      <c r="E9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFAB0D82-0E0F-44D5-A9D7-DDF616F34F08}">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="54.5703125" customWidth="1"/>
+    <col min="2" max="2" width="53" customWidth="1"/>
+    <col min="3" max="3" width="23.85546875" customWidth="1"/>
+    <col min="4" max="4" width="42.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="str">
+        <f>A2</f>
+        <v>Workflow-103497d4-c2fa-4759-a595-ced445cb98c9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="str">
+        <f>RIGHT(A2, LEN(A2)- LEN("Workflow-"))</f>
+        <v>103497d4-c2fa-4759-a595-ced445cb98c9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="str">
+        <f>A3</f>
+        <v>Workflow-e5afbe33-485a-4d35-ab33-9d36d2f5d7ba</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="str">
+        <f>RIGHT(A3, LEN(A3)- LEN("Workflow-"))</f>
+        <v>e5afbe33-485a-4d35-ab33-9d36d2f5d7ba</v>
+      </c>
+      <c r="E3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{209E9606-2528-4BFB-8F28-FAC923862433}">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="52" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="str">
+        <f>workflows!$A$2</f>
+        <v>Workflow-103497d4-c2fa-4759-a595-ced445cb98c9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="str">
+        <f>RIGHT(B2, LEN(B2)-LEN("Node-"))</f>
+        <v>013e55a5-fb9c-46a9-82ce-c7f429428ff8</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="3" t="s">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="str">
+        <f>workflows!$A$2</f>
+        <v>Workflow-103497d4-c2fa-4759-a595-ced445cb98c9</v>
+      </c>
+      <c r="B3" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
+      <c r="C3" t="str">
+        <f t="shared" ref="C3:C4" si="0">RIGHT(B3, LEN(B3)-LEN("Node-"))</f>
+        <v>c552e884-d2d4-47b7-92ca-0b8a7fef813c</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="str">
+        <f>workflows!$A$2</f>
+        <v>Workflow-103497d4-c2fa-4759-a595-ced445cb98c9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>e3a1049b-74af-428e-9a9a-84d0a2ddff71</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CC0A4FE-042C-47B8-9C1F-F662A6D9372F}">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="52" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="94.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="str">
+        <f>workflows!$A$2</f>
+        <v>Workflow-103497d4-c2fa-4759-a595-ced445cb98c9</v>
+      </c>
+      <c r="B2" t="str">
+        <f>_xlfn.CONCAT(nodes!$B$2, "#Data-", C2)</f>
+        <v>Node-013e55a5-fb9c-46a9-82ce-c7f429428ff8#Data-f1bd9eea-f9b5-469d-95fe-fc3b8dcbdf1a</v>
+      </c>
+      <c r="C2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="str">
+        <f>LEFT(RIGHT(B2,LEN(B2)-LEN("Node-")),LEN(C2))</f>
+        <v>013e55a5-fb9c-46a9-82ce-c7f429428ff8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>8</v>
+      <c r="A3" t="str">
+        <f>workflows!$A$2</f>
+        <v>Workflow-103497d4-c2fa-4759-a595-ced445cb98c9</v>
+      </c>
+      <c r="B3" t="str">
+        <f>_xlfn.CONCAT(nodes!$B$2, "#Data-", C3)</f>
+        <v>Node-013e55a5-fb9c-46a9-82ce-c7f429428ff8#Data-4855760e-a49e-4f3a-bb7c-10772b299d68</v>
+      </c>
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" ref="E3:E6" si="0">LEFT(RIGHT(B3,LEN(B3)-LEN("Node-")),LEN(C3))</f>
+        <v>013e55a5-fb9c-46a9-82ce-c7f429428ff8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
+      <c r="A4" t="str">
+        <f>workflows!$A$2</f>
+        <v>Workflow-103497d4-c2fa-4759-a595-ced445cb98c9</v>
+      </c>
+      <c r="B4" t="str">
+        <f>_xlfn.CONCAT(nodes!$B$3, "#Data-", C4)</f>
+        <v>Node-c552e884-d2d4-47b7-92ca-0b8a7fef813c#Data-dd3d72ab-a495-4341-a444-4df443dbedae</v>
+      </c>
+      <c r="C4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="0"/>
+        <v>c552e884-d2d4-47b7-92ca-0b8a7fef813c</v>
+      </c>
+      <c r="F4" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
-      <c r="B5" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" t="s">
-        <v>14</v>
+      <c r="A5" t="str">
+        <f>workflows!$A$2</f>
+        <v>Workflow-103497d4-c2fa-4759-a595-ced445cb98c9</v>
+      </c>
+      <c r="B5" t="str">
+        <f>_xlfn.CONCAT(nodes!$B$3, "#Data-", C5)</f>
+        <v>Node-c552e884-d2d4-47b7-92ca-0b8a7fef813c#Data-3b55fb38-58b3-4895-b6ce-64b2efb549b2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="0"/>
+        <v>c552e884-d2d4-47b7-92ca-0b8a7fef813c</v>
+      </c>
+      <c r="F5" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="4">
-        <v>123</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
-      <c r="B7" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="12"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="4">
-        <v>541</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
+      <c r="A6" t="str">
+        <f>workflows!$A$2</f>
+        <v>Workflow-103497d4-c2fa-4759-a595-ced445cb98c9</v>
+      </c>
+      <c r="B6" t="str">
+        <f>_xlfn.CONCAT(nodes!$B$4, "#Data-", C6)</f>
+        <v>Node-e3a1049b-74af-428e-9a9a-84d0a2ddff71#Data-32b5093e-0c39-46bf-9fe0-100ba02cbac8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="0"/>
+        <v>e3a1049b-74af-428e-9a9a-84d0a2ddff71</v>
+      </c>
+      <c r="F6" t="s">
+        <v>42</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:F2"/>
-    <mergeCell ref="A3:A8"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B7:B8"/>
-  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFC65283-325E-4280-8562-54FF98306700}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="52" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" customWidth="1"/>
+    <col min="3" max="4" width="41.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="str">
+        <f>workflows!$A$2</f>
+        <v>Workflow-103497d4-c2fa-4759-a595-ced445cb98c9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="str">
+        <f>node_data!$C$3</f>
+        <v>4855760e-a49e-4f3a-bb7c-10772b299d68</v>
+      </c>
+      <c r="D2" t="str">
+        <f>node_data!$C$4</f>
+        <v>dd3d72ab-a495-4341-a444-4df443dbedae</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="str">
+        <f>node_data!$C$5</f>
+        <v>3b55fb38-58b3-4895-b6ce-64b2efb549b2</v>
+      </c>
+      <c r="D3" t="str">
+        <f>node_data!$C$6</f>
+        <v>32b5093e-0c39-46bf-9fe0-100ba02cbac8</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>